--- a/Algorithms/Dp/Knapsack.xlsx
+++ b/Algorithms/Dp/Knapsack.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Hamu01-Github\SampleCode\Algorithms\Dp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Github\SampleCode\Algorithms\Dp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>P:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>W:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalWeight:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalPrice:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01背包，刚好装满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i\w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i\w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalPrice:120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -71,19 +111,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -99,7 +270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -361,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -377,489 +548,574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <v>10</v>
       </c>
-      <c r="D1">
+      <c r="D2" s="5">
         <v>20</v>
       </c>
-      <c r="E1">
+      <c r="E2" s="5">
         <v>30</v>
       </c>
-      <c r="F1">
+      <c r="F2" s="5">
         <v>40</v>
       </c>
-      <c r="G1">
+      <c r="G2" s="5">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>100</v>
-      </c>
-      <c r="K1">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>100</v>
+      </c>
+      <c r="K2" s="5">
         <v>50</v>
       </c>
-      <c r="L1">
+      <c r="L2" s="5">
         <v>120</v>
       </c>
-      <c r="M1">
+      <c r="M2" s="5">
         <v>30</v>
       </c>
-      <c r="N1">
+      <c r="N2" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J3" s="5">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="K3" s="5">
         <v>20</v>
       </c>
-      <c r="L2">
+      <c r="L3" s="5">
         <v>50</v>
       </c>
-      <c r="M2">
+      <c r="M3" s="5">
         <v>30</v>
       </c>
-      <c r="N2">
+      <c r="N3" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4" s="5">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>150</v>
-      </c>
-      <c r="F4">
-        <v>150</v>
-      </c>
-      <c r="G4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5">
+        <v>150</v>
+      </c>
+      <c r="F5" s="5">
+        <v>150</v>
+      </c>
+      <c r="G5" s="6">
+        <v>150</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>150</v>
-      </c>
-      <c r="F5">
-        <v>150</v>
-      </c>
-      <c r="G5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5">
+        <v>150</v>
+      </c>
+      <c r="F6" s="5">
+        <v>150</v>
+      </c>
+      <c r="G6" s="6">
+        <v>150</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>150</v>
-      </c>
-      <c r="F6">
-        <v>150</v>
-      </c>
-      <c r="G6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <v>150</v>
+      </c>
+      <c r="F7" s="5">
+        <v>150</v>
+      </c>
+      <c r="G7" s="6">
+        <v>150</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="8">
         <v>160</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="8">
         <v>160</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="9">
         <v>210</v>
       </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D12" s="5">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="E12" s="5">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="F12" s="5">
         <v>40</v>
       </c>
-      <c r="G9">
+      <c r="G12" s="5">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>100</v>
+      </c>
+      <c r="K12" s="5">
         <v>50</v>
       </c>
-      <c r="L9">
+      <c r="L12" s="5">
         <v>120</v>
       </c>
-      <c r="M9">
+      <c r="M12" s="5">
         <v>30</v>
       </c>
-      <c r="N9">
+      <c r="N12" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J13" s="5">
         <v>10</v>
       </c>
-      <c r="K10">
+      <c r="K13" s="5">
         <v>20</v>
       </c>
-      <c r="L10">
+      <c r="L13" s="5">
         <v>50</v>
       </c>
-      <c r="M10">
+      <c r="M13" s="5">
         <v>30</v>
       </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="N13" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>100</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>100</v>
+      </c>
+      <c r="D15" s="11">
         <v>50</v>
       </c>
-      <c r="E12">
-        <v>150</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="E15" s="11">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11">
         <v>50</v>
       </c>
-      <c r="E13">
-        <v>150</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="E16" s="11">
+        <v>150</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="6">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="H16" s="5"/>
+      <c r="I16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <v>100</v>
+      </c>
+      <c r="D17" s="11">
         <v>50</v>
       </c>
-      <c r="E14">
-        <v>150</v>
-      </c>
-      <c r="F14">
+      <c r="E17" s="11">
+        <v>150</v>
+      </c>
+      <c r="F17" s="11">
         <v>130</v>
       </c>
-      <c r="G14">
+      <c r="G17" s="6">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>60</v>
-      </c>
-      <c r="E15">
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>100</v>
+      </c>
+      <c r="D18" s="8">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8">
+        <v>150</v>
+      </c>
+      <c r="F18" s="8">
         <v>160</v>
       </c>
-      <c r="F15">
-        <v>130</v>
-      </c>
-      <c r="G15">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>40</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17">
-        <v>50</v>
-      </c>
-      <c r="L17">
+      <c r="G18" s="9">
         <v>120</v>
       </c>
-      <c r="M17">
-        <v>30</v>
-      </c>
-      <c r="N17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
-      <c r="L18">
-        <v>50</v>
-      </c>
-      <c r="M18">
-        <v>30</v>
-      </c>
-      <c r="N18">
-        <v>30</v>
-      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="E20">
-        <v>150</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>50</v>
-      </c>
-      <c r="E21">
-        <v>150</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-      <c r="E22">
-        <v>150</v>
-      </c>
-      <c r="F22">
-        <v>130</v>
-      </c>
-      <c r="G22">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23">
-        <v>150</v>
-      </c>
-      <c r="F23">
-        <v>160</v>
-      </c>
-      <c r="G23">
-        <v>120</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I16:N16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Algorithms/Dp/Knapsack.xlsx
+++ b/Algorithms/Dp/Knapsack.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Github\SampleCode\Algorithms\Dp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Hamu01-Github\SampleCode\Algorithms\Dp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>P:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TotalWeight:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TotalPrice:210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,14 @@
   </si>
   <si>
     <t>TotalPrice:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalWeight:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalWeight:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,6 +238,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,18 +256,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -270,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,7 +539,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,44 +552,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5">
-        <v>40</v>
-      </c>
       <c r="G2" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -634,19 +638,19 @@
         <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L3" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M3" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N3" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -702,14 +706,14 @@
         <v>150</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
+      <c r="I5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -734,14 +738,14 @@
         <v>150</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
+      <c r="I6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -836,44 +840,44 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5">
         <v>5</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5">
-        <v>40</v>
-      </c>
-      <c r="G12" s="5">
-        <v>50</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
@@ -903,38 +907,38 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L13" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M13" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N13" s="6">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -948,16 +952,16 @@
         <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -984,20 +988,20 @@
         <v>150</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
+      <c r="I15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -1016,20 +1020,20 @@
         <v>150</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="6">
         <v>120</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
+      <c r="I16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1109,12 +1113,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I16:N16"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I16:N16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
